--- a/data/trans_dic/P13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,86</t>
+          <t>1,05; 3,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,21</t>
+          <t>1,3; 4,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,21</t>
+          <t>1,35; 4,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,73</t>
+          <t>0,91; 3,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,12</t>
+          <t>0,53; 3,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,32</t>
+          <t>1,4; 3,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,47</t>
+          <t>1,39; 3,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,75</t>
+          <t>0,37; 1,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,24</t>
+          <t>0,02; 1,4</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,42</t>
+          <t>0,59; 2,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,89</t>
+          <t>1,31; 3,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,11</t>
+          <t>0,98; 3,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,0</t>
+          <t>2,1; 6,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,04</t>
+          <t>1,39; 3,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,89</t>
+          <t>2,56; 5,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,81</t>
+          <t>0,83; 2,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,65</t>
+          <t>1,75; 5,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,72</t>
+          <t>1,11; 2,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,23</t>
+          <t>2,21; 4,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,54</t>
+          <t>1,06; 2,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,19</t>
+          <t>2,3; 5,27</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,02</t>
+          <t>2,57; 6,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,04</t>
+          <t>2,78; 6,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,17</t>
+          <t>2,17; 5,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,39</t>
+          <t>2,22; 5,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,94</t>
+          <t>2,07; 4,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,79</t>
+          <t>4,96; 8,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,42</t>
+          <t>1,62; 4,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,28</t>
+          <t>1,87; 4,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,82</t>
+          <t>2,68; 4,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,78</t>
+          <t>4,25; 6,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,29</t>
+          <t>2,22; 4,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,35</t>
+          <t>2,41; 4,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,97</t>
+          <t>0,68; 3,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,27</t>
+          <t>2,69; 6,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,86</t>
+          <t>2,66; 6,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,15</t>
+          <t>2,76; 6,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,14</t>
+          <t>2,74; 6,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,91</t>
+          <t>6,35; 11,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,71</t>
+          <t>4,68; 8,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,24</t>
+          <t>3,67; 6,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,94</t>
+          <t>1,82; 3,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,95</t>
+          <t>4,98; 7,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,66</t>
+          <t>4,2; 6,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,9</t>
+          <t>3,56; 5,71</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,39</t>
+          <t>1,76; 5,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,29</t>
+          <t>2,41; 6,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,53</t>
+          <t>2,44; 6,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,94</t>
+          <t>4,97; 9,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,85</t>
+          <t>3,21; 7,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,37</t>
+          <t>7,18; 13,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,07</t>
+          <t>5,28; 10,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,1</t>
+          <t>6,62; 10,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,99</t>
+          <t>3,1; 6,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,78</t>
+          <t>5,3; 8,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,44</t>
+          <t>4,39; 7,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 8,89</t>
+          <t>6,09; 8,63</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,6; 10,28</t>
+          <t>5,49; 10,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,76</t>
+          <t>8,07; 14,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,51</t>
+          <t>4,58; 8,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,24; 11,98</t>
+          <t>8,42; 12,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 13,44</t>
+          <t>8,45; 13,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,39</t>
+          <t>17,78; 24,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,38; 13,14</t>
+          <t>8,37; 13,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,74; 18,08</t>
+          <t>10,24; 17,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,27</t>
+          <t>7,88; 11,51</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,0</t>
+          <t>14,72; 18,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 10,56</t>
+          <t>7,31; 10,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,41; 14,77</t>
+          <t>10,8; 14,81</t>
         </is>
       </c>
     </row>
@@ -1564,47 +1564,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,89</t>
+          <t>2,56; 3,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,57</t>
+          <t>3,94; 5,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,17</t>
+          <t>2,81; 4,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,55; 6,09</t>
+          <t>4,53; 6,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,62</t>
+          <t>4,11; 5,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,27</t>
+          <t>8,39; 10,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,33</t>
+          <t>4,78; 6,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,06</t>
+          <t>6,44; 8,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,58; 4,52</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,12 +1614,12 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,08</t>
+          <t>4,03; 5,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,83; 6,88</t>
+          <t>5,81; 6,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,98</t>
+          <t>0,94; 3,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,21</t>
+          <t>1,3; 4,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,35; 4,37</t>
+          <t>1,42; 4,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,88</t>
+          <t>0,91; 4,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,38</t>
+          <t>0,75; 3,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,49</t>
+          <t>1,49; 3,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,41</t>
+          <t>1,33; 3,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,68</t>
+          <t>0,37; 1,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,27</t>
+          <t>0,65; 2,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,94</t>
+          <t>1,26; 3,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,12</t>
+          <t>0,99; 3,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,93</t>
+          <t>1,37; 4,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,84</t>
+          <t>2,62; 6,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,98</t>
+          <t>0,74; 3,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,65</t>
+          <t>1,22; 2,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,22</t>
+          <t>2,24; 4,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,69</t>
+          <t>1,11; 2,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,06</t>
+          <t>2,5; 6,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,01</t>
+          <t>2,74; 5,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,07</t>
+          <t>2,2; 5,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,92</t>
+          <t>2,03; 4,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 8,74</t>
+          <t>4,65; 8,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,36</t>
+          <t>1,75; 4,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,83</t>
+          <t>2,68; 4,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,67</t>
+          <t>4,21; 6,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,16</t>
+          <t>2,16; 4,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,11</t>
+          <t>0,57; 2,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,31</t>
+          <t>2,74; 6,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,06</t>
+          <t>2,61; 5,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,38</t>
+          <t>2,62; 6,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,35; 11,12</t>
+          <t>6,42; 11,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,68; 8,53</t>
+          <t>4,38; 8,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,86</t>
+          <t>1,87; 3,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 7,85</t>
+          <t>5,03; 8,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 6,54</t>
+          <t>4,07; 6,67</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,48</t>
+          <t>1,75; 5,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 6,11</t>
+          <t>2,44; 6,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,31</t>
+          <t>2,48; 6,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,21; 7,82</t>
+          <t>3,45; 8,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,18; 13,02</t>
+          <t>7,28; 12,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,28; 10,45</t>
+          <t>5,18; 10,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,02</t>
+          <t>3,14; 6,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 8,89</t>
+          <t>5,19; 8,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,39; 7,56</t>
+          <t>4,38; 7,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,49; 10,58</t>
+          <t>5,63; 10,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,07; 14,02</t>
+          <t>8,22; 13,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,26</t>
+          <t>4,58; 8,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,46</t>
+          <t>8,38; 13,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,16</t>
+          <t>18,15; 24,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,36</t>
+          <t>8,52; 13,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,88; 11,51</t>
+          <t>7,86; 11,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,72; 18,88</t>
+          <t>14,5; 19,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 10,39</t>
+          <t>7,23; 10,44</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,56; 3,82</t>
+          <t>2,65; 3,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 5,39</t>
+          <t>3,91; 5,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,17</t>
+          <t>2,81; 4,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,6</t>
+          <t>4,11; 5,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,39; 10,35</t>
+          <t>8,42; 10,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 6,41</t>
+          <t>4,82; 6,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 4,52</t>
+          <t>3,59; 4,56</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 7,7</t>
+          <t>6,36; 7,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,03; 5,02</t>
+          <t>4,01; 5,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,75</t>
+          <t>0,93; 3,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,35</t>
+          <t>1,22; 4,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,27</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 1,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,34</t>
+          <t>1,4; 4,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,07</t>
+          <t>0,72; 3,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,52</t>
+          <t>0,53; 3,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 2,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,49</t>
+          <t>1,37; 3,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,5</t>
+          <t>1,45; 3,47</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,72</t>
+          <t>0,37; 1,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,4</t>
+          <t>0,02; 1,24</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,39</t>
+          <t>0,63; 2,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,79</t>
+          <t>1,35; 3,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,21</t>
+          <t>0,96; 3,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,89</t>
+          <t>2,14; 7,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 4,13</t>
+          <t>1,38; 4,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,13</t>
+          <t>2,61; 5,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,04</t>
+          <t>0,8; 2,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,37</t>
+          <t>1,72; 5,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,7</t>
+          <t>1,15; 2,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,27</t>
+          <t>2,23; 4,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,11; 2,57</t>
+          <t>1,05; 2,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,27</t>
+          <t>2,36; 5,19</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,02</t>
+          <t>2,64; 6,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 5,84</t>
+          <t>2,8; 6,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,11</t>
+          <t>2,22; 5,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,59</t>
+          <t>2,13; 5,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,78</t>
+          <t>1,99; 4,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 8,55</t>
+          <t>4,76; 8,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,38</t>
+          <t>1,75; 4,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,26</t>
+          <t>1,89; 4,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 4,77</t>
+          <t>2,57; 4,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 6,65</t>
+          <t>4,29; 6,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 4,18</t>
+          <t>2,18; 4,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 4,41</t>
+          <t>2,3; 4,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,93</t>
+          <t>0,57; 2,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,74; 6,39</t>
+          <t>2,72; 6,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,96</t>
+          <t>2,67; 5,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,37</t>
+          <t>2,76; 6,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,09</t>
+          <t>2,53; 6,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,42; 11,28</t>
+          <t>6,17; 10,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,55</t>
+          <t>4,62; 8,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,67; 6,22</t>
+          <t>3,61; 6,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,98</t>
+          <t>1,79; 3,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,03; 8,01</t>
+          <t>4,95; 7,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,67</t>
+          <t>3,97; 6,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,56; 5,71</t>
+          <t>3,49; 5,9</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,71</t>
+          <t>1,78; 5,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,35</t>
+          <t>2,48; 6,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,26</t>
+          <t>2,5; 6,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,02</t>
+          <t>4,89; 8,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,01</t>
+          <t>3,41; 7,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,28; 12,73</t>
+          <t>7,27; 13,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 10,57</t>
+          <t>5,37; 10,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,62; 10,03</t>
+          <t>6,48; 10,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 6,06</t>
+          <t>3,04; 5,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 8,83</t>
+          <t>5,37; 8,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,52</t>
+          <t>4,31; 7,44</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,09; 8,63</t>
+          <t>6,2; 8,89</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 10,2</t>
+          <t>5,6; 10,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,86</t>
+          <t>8,27; 13,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 8,33</t>
+          <t>4,57; 8,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 12,16</t>
+          <t>8,24; 11,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,38; 13,43</t>
+          <t>8,49; 13,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,15; 24,28</t>
+          <t>18,18; 24,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 13,48</t>
+          <t>8,38; 13,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,24; 17,94</t>
+          <t>10,74; 18,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 11,32</t>
+          <t>7,65; 11,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,5; 19,02</t>
+          <t>14,55; 19,0</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,23; 10,44</t>
+          <t>7,26; 10,56</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,8; 14,81</t>
+          <t>10,41; 14,77</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 3,89</t>
+          <t>2,59; 3,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 5,39</t>
+          <t>3,96; 5,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,12</t>
+          <t>2,85; 4,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,08</t>
+          <t>4,55; 6,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,57</t>
+          <t>4,15; 5,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,42; 10,35</t>
+          <t>8,41; 10,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,82; 6,39</t>
+          <t>4,77; 6,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 8,04</t>
+          <t>6,44; 8,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,59; 4,56</t>
+          <t>3,54; 4,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 7,67</t>
+          <t>6,35; 7,7</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>4,01; 5,01</t>
+          <t>4,05; 5,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 6,89</t>
+          <t>5,83; 6,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,41%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,98</t>
+          <t>0,0; 2,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,32</t>
+          <t>0,0; 2,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,24</t>
+          <t>0,02; 1,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,41%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 7,0</t>
+          <t>2,16; 7,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,65</t>
+          <t>1,36; 4,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,19</t>
+          <t>2,16; 5,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,23%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,39</t>
+          <t>2,11; 5,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,28</t>
+          <t>1,92; 4,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,35</t>
+          <t>2,28; 4,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>3,85%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,15</t>
+          <t>1,35; 5,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,24</t>
+          <t>3,45; 6,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,9</t>
+          <t>2,28; 5,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,35%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,94</t>
+          <t>4,89; 8,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,48; 10,1</t>
+          <t>6,44; 9,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,2; 8,89</t>
+          <t>6,16; 8,85</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>8,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>21,0%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,6; 10,28</t>
+          <t>3,88; 9,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,27; 13,76</t>
+          <t>5,21; 11,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,57; 8,51</t>
+          <t>2,31; 6,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,24; 11,98</t>
+          <t>5,12; 9,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,49; 13,44</t>
+          <t>5,83; 11,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,18; 24,39</t>
+          <t>12,45; 20,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,38; 13,14</t>
+          <t>3,8; 8,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,74; 18,08</t>
+          <t>2,02; 9,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,27</t>
+          <t>5,81; 9,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>14,55; 19,0</t>
+          <t>10,21; 15,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,26; 10,56</t>
+          <t>3,68; 7,17</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,41; 14,77</t>
+          <t>3,02; 8,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>25,16%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>20,64%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>6,0; 14,57</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9,42; 18,74</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5,97; 12,81</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>11,08; 17,59</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9,58; 17,12</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20,84; 30,63</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11,21; 19,55</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22,18; 28,17</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 14,94</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>17,48; 24,4</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 15,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>18,53; 22,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4,64%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3,47%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>5,53%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>7,03%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>5,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>2,59; 3,89</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>3,96; 5,57</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,85; 4,17</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>4,55; 6,09</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 5,67</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>4,15; 5,62</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>8,41; 10,27</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>4,77; 6,33</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,44; 8,06</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5,69; 7,71</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>3,54; 4,54</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>6,35; 7,7</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>4,05; 5,08</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 6,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 6,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,86</t>
+          <t>0,93; 3,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,21</t>
+          <t>1,29; 4,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,03</t>
+          <t>0,0; 2,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,21</t>
+          <t>1,41; 4,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,73</t>
+          <t>0,9; 3,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 3,12</t>
+          <t>0,52; 3,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,08</t>
+          <t>0,0; 1,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,32</t>
+          <t>1,45; 3,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,47</t>
+          <t>1,46; 3,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,75</t>
+          <t>0,37; 1,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,3</t>
+          <t>0,02; 1,35</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,42</t>
+          <t>0,55; 2,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,89</t>
+          <t>1,3; 3,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,11</t>
+          <t>1,02; 3,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,05</t>
+          <t>2,06; 7,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,04</t>
+          <t>1,33; 3,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,89</t>
+          <t>2,56; 5,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,81</t>
+          <t>0,82; 3,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,92</t>
+          <t>1,44; 5,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,72</t>
+          <t>1,17; 2,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,23</t>
+          <t>2,33; 4,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,54</t>
+          <t>1,11; 2,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 5,07</t>
+          <t>2,18; 4,97</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 6,02</t>
+          <t>2,67; 6,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,04</t>
+          <t>2,82; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,22; 5,17</t>
+          <t>2,09; 5,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,11; 5,33</t>
+          <t>2,28; 5,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 4,94</t>
+          <t>2,1; 4,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,79</t>
+          <t>4,81; 8,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 4,42</t>
+          <t>1,68; 4,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,27</t>
+          <t>1,95; 4,39</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,82</t>
+          <t>2,62; 4,7</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,29; 6,78</t>
+          <t>4,24; 6,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,29</t>
+          <t>2,21; 4,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,34</t>
+          <t>2,31; 4,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,97</t>
+          <t>0,62; 2,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,27</t>
+          <t>2,78; 6,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,86</t>
+          <t>2,66; 6,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,35; 5,29</t>
+          <t>1,15; 5,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,14</t>
+          <t>2,53; 6,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,91</t>
+          <t>6,27; 10,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,71</t>
+          <t>4,76; 8,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,09</t>
+          <t>3,33; 5,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 3,94</t>
+          <t>1,89; 3,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,95</t>
+          <t>4,98; 7,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,66</t>
+          <t>4,02; 6,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,14</t>
+          <t>2,34; 5,12</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,39</t>
+          <t>1,85; 5,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,29</t>
+          <t>2,48; 6,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,53</t>
+          <t>2,59; 6,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,89; 8,89</t>
+          <t>4,69; 8,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,85</t>
+          <t>3,39; 7,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 13,37</t>
+          <t>7,13; 12,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,07</t>
+          <t>5,34; 10,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,99</t>
+          <t>6,49; 9,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,99</t>
+          <t>3,1; 6,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,78</t>
+          <t>5,28; 8,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,44</t>
+          <t>4,32; 7,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 8,85</t>
+          <t>6,04; 8,66</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,3</t>
+          <t>3,74; 9,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,21; 11,79</t>
+          <t>5,58; 12,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,89</t>
+          <t>2,09; 6,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 9,19</t>
+          <t>5,17; 9,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,83; 11,51</t>
+          <t>6,15; 12,05</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>12,45; 20,58</t>
+          <t>12,2; 20,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,91</t>
+          <t>4,02; 9,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 9,11</t>
+          <t>2,39; 9,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,81; 9,89</t>
+          <t>5,68; 9,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,21; 15,41</t>
+          <t>10,0; 15,34</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,17</t>
+          <t>3,5; 6,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,22</t>
+          <t>2,86; 8,26</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,0; 14,57</t>
+          <t>6,61; 15,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,42; 18,74</t>
+          <t>9,67; 19,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,97; 12,81</t>
+          <t>6,18; 13,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,08; 17,59</t>
+          <t>10,69; 17,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,58; 17,12</t>
+          <t>9,4; 17,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,84; 30,63</t>
+          <t>21,09; 30,62</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 19,55</t>
+          <t>11,65; 19,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,18; 28,17</t>
+          <t>22,4; 28,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,94</t>
+          <t>9,06; 14,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,48; 24,4</t>
+          <t>17,74; 24,25</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,7</t>
+          <t>10,27; 15,79</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,53; 22,88</t>
+          <t>18,4; 22,91</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,59; 3,89</t>
+          <t>2,62; 3,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,96; 5,57</t>
+          <t>3,95; 5,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,85; 4,17</t>
+          <t>2,89; 4,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,76; 5,67</t>
+          <t>3,61; 5,67</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,15; 5,62</t>
+          <t>4,05; 5,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,27</t>
+          <t>8,33; 10,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,33</t>
+          <t>4,74; 6,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,69; 7,71</t>
+          <t>5,55; 7,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,58; 4,56</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6,35; 7,7</t>
+          <t>6,36; 7,68</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,05; 5,08</t>
+          <t>4,05; 5,1</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,09; 6,46</t>
+          <t>5,14; 6,46</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>9968</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11355</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1762</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11884</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>8680</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6115</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21851</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20036</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7046</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>2915</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4589; 18537</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5844; 18925</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5207</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9127</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6594; 20013</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3885; 17013</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2077; 12270</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6011</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13957; 33270</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>12895; 32367</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>2983; 14188</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>169; 9599</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>9275</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>15751</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>10962</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17096</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15060</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24632</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>8903</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14795</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>24335</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>40383</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>19865</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31890</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>4060; 17506</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8917; 25747</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6003; 19774</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8710; 30182</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8298; 24691</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15573; 36215</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4628; 17379</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7376; 25580</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15882; 36881</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30243; 54561</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12836; 30082</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>20390; 46497</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25904</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>28152</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22935</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18986</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22319</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46802</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18412</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15858</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48223</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>74954</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41347</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>34844</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>17045; 38614</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19234; 39678</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13969; 34440</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12238; 30185</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14457; 32707</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>34115; 62352</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11078; 28479</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10560; 23764</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>34847; 62450</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>58970; 93862</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29380; 55217</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24887; 47518</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7424</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26075</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>26499</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28435</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20880</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>52224</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>41411</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33101</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28305</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>78299</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>67910</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61536</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3199; 14946</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>17080; 38938</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>17209; 39565</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10185; 47465</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13039; 31199</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38626; 67640</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30877; 56506</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>23729; 42218</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>19600; 40926</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>61248; 97347</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>51998; 85543</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>37346; 81900</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12688</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17784</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>19381</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>36787</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>21374</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43399</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>37214</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>44573</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>34062</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>61183</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>56595</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>81360</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7163; 22032</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10616; 27764</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>12359; 31502</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>26268; 48883</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13711; 32014</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31942; 57656</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26530; 51741</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>35517; 53923</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>24513; 47543</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>46285; 77209</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>42131; 72331</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>66844; 95955</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>18052</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>25777</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13472</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>25776</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>29472</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>57259</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23222</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>33971</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>47525</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>83035</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>36694</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>59747</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10936; 27423</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>17298; 38081</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7002; 21767</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>18972; 33847</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21104; 41340</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>43177; 71215</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>15171; 34943</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>14519; 55081</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>36066; 61606</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>66397; 101848</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>24953; 49744</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>27875; 80513</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>21099</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>34047</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>23401</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>39239</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>42903</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>98564</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>60404</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>106627</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>64002</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>132611</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>83805</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>145865</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>13873; 31764</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>24064; 47544</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>15891; 33424</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>30220; 49487</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>31404; 57536</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>81809; 118773</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>46453; 79710</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>94933; 120648</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>49254; 79851</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>112948; 154430</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>67328; 103561</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>129996; 161884</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>671</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>104411</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>158941</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>117581</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>168081</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>163893</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>331560</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>195680</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>250076</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>268304</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>490501</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>313261</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>418157</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>85961; 125506</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>135106; 188271</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>97926; 140090</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>124843; 196052</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>137011; 189635</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>296176; 369679</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>167866; 223954</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>202910; 280723</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>238296; 303755</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>444062; 535778</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>280753; 353544</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>365723; 459618</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>